--- a/similarities/split_global/harmonic_similarity_timestamps_90.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_90.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,470 +484,486 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_152</t>
+          <t>schubert-winterreise_193</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
+          <t>schubert-winterreise_36</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['A/3', 'D', 'A']]</t>
+          <t>['C:min', 'F:min', 'C:min/G']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>['G:min/A#', 'C:min', 'G:min/A#']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:04.250000', '0:00:09.179000')]</t>
+          <t>('0:00:09.240000', '0:00:12.560000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:02:09.380000', '0:02:14.380000')]</t>
+          <t>('0:01:37.880000', '0:01:48.980000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-152#t=4.25']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-193#t=9.24</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-74#t=129.38']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=97.88</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_147</t>
+          <t>isophonics_155</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_182</t>
+          <t>isophonics_152</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'A'], ['E', 'A', 'E']]</t>
+          <t>['Ab', 'Db/5', 'Ab']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:maj/A', 'G:maj/B'], ['D:maj/A', 'G:maj', 'D:maj/A']]</t>
+          <t>['A/3', 'D', 'A']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:34.866000', '0:00:59.164000'), ('0:00:15.216000', '0:00:32.669000')]</t>
+          <t>('0:00:00.243000', '0:00:09.120000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:02:37.160000', '0:02:40.380000'), ('0:02:34.020000', '0:02:39.240000')]</t>
+          <t>('0:00:04.250000', '0:00:09.179000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-147#t=34.866', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-147#t=15.216']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-155#t=0.243</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-182#t=157.16', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-182#t=154.02']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-152#t=4.25</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
+          <t>schubert-winterreise_185</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_15</t>
+          <t>jaah_66</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>['B:7', 'E:maj/B', 'E:min/B', 'B:maj']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['C', 'F', 'C']]</t>
+          <t>['Ab:7', 'Db', 'Db:min', 'Ab']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:18.320000', '0:00:25.820000')]</t>
+          <t>('0:00:03.520000', '0:00:13.740000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:01:04.514625', '0:01:27.246961')]</t>
+          <t>('0:00:47.890000', '0:00:52.970000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=18.32']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-185#t=3.52</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-15#t=64.514625']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-66#t=47.89</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_96</t>
+          <t>isophonics_221</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
+          <t>isophonics_5</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj']]</t>
+          <t>['C', 'F/5', 'C']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>['E', 'A', 'E']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:11.384000', '0:00:18.318000')]</t>
+          <t>('0:00:05.121000', '0:00:12.601000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:01:45', '0:01:48.240000')]</t>
+          <t>('0:00:09.162102', '0:00:14.073123')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-96#t=11.384']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-221#t=5.121</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-129#t=105.0']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-5#t=9.162102</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_2</t>
+          <t>schubert-winterreise_40</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_217</t>
+          <t>schubert-winterreise_171</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['Bb/3', 'Eb:maj', 'Bb/3']]</t>
+          <t>['A:7/G', 'D:maj/F#', 'D:maj/A', 'A:7', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G']]</t>
+          <t>['C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:38.041000', '0:00:42.375000')]</t>
+          <t>('0:03:58.720000', '0:04:14.260000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:03.826054', '0:00:14.054444')]</t>
+          <t>('0:00:20.420000', '0:00:24.160000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-2#t=38.041']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-40#t=238.72</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-217#t=3.826054']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-171#t=20.42</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_2</t>
+          <t>isophonics_183</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_130</t>
+          <t>schubert-winterreise_68</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>['D', 'A:7', 'D']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
+          <t>['G:maj', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:20.560000', '0:00:30.380000')]</t>
+          <t>('0:01:09.520470', '0:01:14.942329')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:25.260000', '0:00:45.540000')]</t>
+          <t>('0:00:08.740000', '0:00:17.660000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-2#t=20.56']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-183#t=69.52047</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-130#t=25.26']</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-68#t=8.74</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_196</t>
+          <t>schubert-winterreise_153</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_95</t>
+          <t>jaah_73</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7', 'G:maj']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['C/G', 'G:7', 'C']]</t>
+          <t>['Bb', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:08.700000', '0:00:18.300000')]</t>
+          <t>('0:01:00.120000', '0:01:01.360000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:03:46.620000', '0:03:52.800000')]</t>
+          <t>('0:00:19.130000', '0:00:20.830000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-196#t=8.7']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-153#t=60.12</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-95#t=226.62']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-73#t=19.13</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_59</t>
+          <t>schubert-winterreise_91</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_165</t>
+          <t>schubert-winterreise_1</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['E:min', 'B:(3,5,b7,b9)', 'E:min']]</t>
+          <t>['D#:maj/A#', 'A#:7', 'D#:maj']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['A#:min/F', 'F:(3,5,b7,b9)', 'A#:min']]</t>
+          <t>['A:maj/E', 'E:7', 'A:maj']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:01:42.400000', '0:02:01.440000')]</t>
+          <t>('0:01:19.980000', '0:01:33.600000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:56.760000', '0:01:02.320000')]</t>
+          <t>('0:00:19.140000', '0:00:22.240000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-59#t=102.4']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-91#t=79.98</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-165#t=56.76']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-1#t=19.14</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_168</t>
+          <t>isophonics_136</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_50</t>
+          <t>schubert-winterreise_73</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['C#:maj/F', 'G#:7', 'C#:maj', 'A#:min']]</t>
+          <t>['A', 'D/5', 'A']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj', 'D:min/A']]</t>
+          <t>['G:maj/B', 'C:maj', 'G:maj/D']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:35.220000', '0:00:42.420000')]</t>
+          <t>('0:00:00.939000', '0:00:03.682000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:01:36.060000', '0:01:47.420000')]</t>
+          <t>('0:01:05.200000', '0:01:07.500000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-168#t=35.22']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-136#t=0.939</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-50#t=96.06']</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-73#t=65.2</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
+          <t>schubert-winterreise_112</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_117</t>
+          <t>schubert-winterreise_78</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>['D#:min', 'A#:maj', 'D#:min']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>['D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:01:53.020000', '0:01:54.760000')]</t>
+          <t>('0:00:00.360000', '0:00:05.060000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:27.760000', '0:00:40.180000')]</t>
+          <t>('0:00:07.400000', '0:00:12.020000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-186#t=113.02']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-112#t=0.36</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-117#t=27.76']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-78#t=7.4</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -956,238 +972,246 @@
         </is>
       </c>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_146</t>
+          <t>isophonics_174</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_42</t>
+          <t>schubert-winterreise_198</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'E:min/G', 'D:maj/F#'], ['E:min/B', 'B:min', 'D:maj/A']]</t>
+          <t>['D', 'G', 'D', 'A']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['Eb', 'F:min', 'Eb/3'], ['F:min', 'C:min', 'Eb/3']]</t>
+          <t>['E:maj/G#', 'A:maj', 'E:maj', 'B:maj']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:36.020000', '0:00:40.440000'), ('0:00:30.340000', '0:00:37.860000')]</t>
+          <t>('0:00:04.063000', '0:00:08.399000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:01.490000', '0:00:04.314000'), ('0:00:34.098000', '0:00:38.337000')]</t>
+          <t>('0:00:55.180000', '0:01:05.560000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-146#t=36.02', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-146#t=30.34']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-174#t=4.063</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-42#t=1.49', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-42#t=34.098']</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-198#t=55.18</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_158</t>
+          <t>isophonics_112</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_135</t>
+          <t>schubert-winterreise_111</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['A:7', 'A:(3,5,b7,b9)/G', 'D:min/F']]</t>
+          <t>['A', 'D/5', 'A']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['F#:7/B', 'F#:(3,5,b7,b9)/B', 'B:min']]</t>
+          <t>['G:maj', 'C:maj/G', 'G:maj']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:02:31.760000', '0:02:34.920000')]</t>
+          <t>('0:00:00.421247', '0:00:04.824512')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:04.820000', '0:00:22.080000')]</t>
+          <t>('0:00:16.040000', '0:00:22.400000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-158#t=151.76']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-112#t=0.421247</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-135#t=4.82']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-111#t=16.04</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_275</t>
+          <t>schubert-winterreise_211</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>jaah_43</t>
+          <t>schubert-winterreise_146</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['D:7', 'G', 'C']]</t>
+          <t>['D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Eb', 'Ab']]</t>
+          <t>['B:min', 'F#:maj', 'B:min']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:07.102281', '0:00:18.956067')]</t>
+          <t>('0:00:01', '0:00:05.360000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:01:33.270000', '0:01:42.970000')]</t>
+          <t>('0:00:13.480000', '0:00:20.960000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-275#t=7.102281']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-211#t=1.0</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-43#t=93.27']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-146#t=13.48</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
+          <t>schubert-winterreise_51</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_19</t>
+          <t>schubert-winterreise_211</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['G:maj', 'G:7/F', 'C:maj/E']]</t>
+          <t>['D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['F', 'F:7', 'Bb']]</t>
+          <t>['F:maj', 'C:7/E', 'F:maj', 'C:7/E', 'F:maj']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:59.400000', '0:01:07.940000')]</t>
+          <t>('0:00:40.640000', '0:00:44.840000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:38.438956', '0:00:41.945170')]</t>
+          <t>('0:00:34.640000', '0:00:41.660000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=59.4']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-51#t=40.64</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-19#t=38.438956']</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-211#t=34.64</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
+          <t>schubert-winterreise_49</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_265</t>
+          <t>schubert-winterreise_60</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>['A:min', 'E:maj/G#', 'A:min']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>['G:min', 'D:maj/G', 'G:min']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:18.120000', '0:00:24.540000')]</t>
+          <t>('0:00:10.760000', '0:00:16.080000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:01:45.425056', '0:01:55.003287')]</t>
+          <t>('0:00:06.300000', '0:00:14.360000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=18.12']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-49#t=10.76</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-265#t=105.425056']</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-60#t=6.3</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
